--- a/assets/data.xlsx
+++ b/assets/data.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,6 +28,10 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <color rgb="000000FF"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="2">
@@ -56,11 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -426,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +450,11 @@
           <t>手机号</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>详情</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -457,6 +467,10 @@
           <t>13888888888</t>
         </is>
       </c>
+      <c r="C2" s="2">
+        <f>HYPERLINK("#Sheet2!A2", "查看详情")</f>
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -469,6 +483,10 @@
           <t>13999999999</t>
         </is>
       </c>
+      <c r="C3" s="2">
+        <f>HYPERLINK("#Sheet2!A3", "查看详情")</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -481,6 +499,10 @@
           <t>13777777777</t>
         </is>
       </c>
+      <c r="C4" s="2">
+        <f>HYPERLINK("#Sheet2!A4", "查看详情")</f>
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -493,6 +515,10 @@
           <t>13666666666</t>
         </is>
       </c>
+      <c r="C5" s="2">
+        <f>HYPERLINK("#Sheet2!A5", "查看详情")</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -505,6 +531,10 @@
           <t>13555555555</t>
         </is>
       </c>
+      <c r="C6" s="2">
+        <f>HYPERLINK("#Sheet2!A6", "查看详情")</f>
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -517,6 +547,10 @@
           <t>13444444444</t>
         </is>
       </c>
+      <c r="C7" s="2">
+        <f>HYPERLINK("#Sheet2!A7", "查看详情")</f>
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -529,6 +563,10 @@
           <t>13333333333</t>
         </is>
       </c>
+      <c r="C8" s="2">
+        <f>HYPERLINK("#Sheet2!A8", "查看详情")</f>
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -540,6 +578,10 @@
         <is>
           <t>13222222222</t>
         </is>
+      </c>
+      <c r="C9" s="2">
+        <f>HYPERLINK("#Sheet2!A9", "查看详情")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
